--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Uw9TedGt</t>
+          <t>ttLF3hdB</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,173 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>12.6</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="S2" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>2.37</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.7</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -768,7 +768,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -762,13 +762,13 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.17</v>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
         <v>5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -777,10 +777,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -762,7 +762,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -798,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -813,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ttLF3hdB</t>
+          <t>MNIj0jM0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,172 +728,354 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
       </c>
       <c r="AC2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>15</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AQ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR2" t="n">
         <v>34</v>
       </c>
-      <c r="AG2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ttLF3hdB</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>12</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC3" t="n">
         <v>351</v>
       </c>
-      <c r="AX2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD2" t="n">
+      <c r="BD3" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -932,7 +932,7 @@
         <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
         <v>2.88</v>
@@ -965,10 +965,10 @@
         <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
         <v>1.5</v>
@@ -977,7 +977,7 @@
         <v>2.5</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
@@ -1046,7 +1046,7 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1061,7 +1061,7 @@
         <v>15</v>
       </c>
       <c r="AY3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -971,34 +971,34 @@
         <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
         <v>23</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -1007,13 +1007,13 @@
         <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -1022,7 +1022,7 @@
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
@@ -1031,7 +1031,7 @@
         <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1070,10 +1070,10 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD3" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,182 +900,364 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>nJe0zKQr</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Smouha</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>ttLF3hdB</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>30/10/2024</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>07:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Yokohama F. Marinos</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Urawa Reds</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>2.45</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>3.4</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>2.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>2.3</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>3.2</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>1.03</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N4" t="n">
         <v>15</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>1.18</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P4" t="n">
         <v>4.5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.3</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>3.4</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U4" t="n">
         <v>1.53</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V4" t="n">
         <v>2.38</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W4" t="n">
         <v>11</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X4" t="n">
         <v>15</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y4" t="n">
         <v>10</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z4" t="n">
         <v>26</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA4" t="n">
         <v>19</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB4" t="n">
         <v>23</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC4" t="n">
         <v>15</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE4" t="n">
         <v>11</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF4" t="n">
         <v>34</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG4" t="n">
         <v>126</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH4" t="n">
         <v>12</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ4" t="n">
         <v>11</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK4" t="n">
         <v>29</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL4" t="n">
         <v>19</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM4" t="n">
         <v>23</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN4" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO4" t="n">
         <v>13</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP4" t="n">
         <v>19</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ4" t="n">
         <v>41</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR4" t="n">
         <v>51</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS4" t="n">
         <v>101</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT4" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU4" t="n">
         <v>7</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV4" t="n">
         <v>41</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW4" t="n">
         <v>5</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX4" t="n">
         <v>15</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY4" t="n">
         <v>21</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ4" t="n">
         <v>41</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA4" t="n">
         <v>51</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB4" t="n">
         <v>126</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC4" t="n">
         <v>401</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD4" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,188 +1079,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ttLF3hdB</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>JAPAN - J1 LEAGUE</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yokohama F. Marinos</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Urawa Reds</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W4" t="n">
-        <v>11</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,188 @@
         <v>51</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rFf4UJrf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16</v>
+      </c>
+      <c r="X4" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L4" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1153,100 +1153,100 @@
         <v>3.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
         <v>9.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>8.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AP4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT4" t="n">
         <v>3.35</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AY4" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BA4" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>rFf4UJrf</t>
+          <t>lrf80kOO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,354 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.47</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4.4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
+        <v>13</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK4" t="n">
         <v>17</v>
       </c>
-      <c r="X4" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AL4" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AN4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>7.5</v>
       </c>
       <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>rFf4UJrf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W5" t="n">
+        <v>18</v>
+      </c>
+      <c r="X5" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA5" t="n">
         <v>60</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AB5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX5" t="n">
         <v>6.7</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY5" t="n">
         <v>14.5</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ5" t="n">
         <v>18.5</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA5" t="n">
         <v>40</v>
       </c>
-      <c r="BB4" t="n">
-        <v>150</v>
-      </c>
-      <c r="BC4" t="n">
+      <c r="BB5" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -965,10 +965,10 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1141,10 +1141,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1153,19 +1153,19 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
         <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
@@ -1189,19 +1189,19 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1225,7 +1225,7 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3.25</v>
@@ -1240,7 +1240,7 @@
         <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
         <v>19</v>
@@ -1293,148 +1293,148 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
         <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI5" t="n">
         <v>8</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.25</v>
       </c>
       <c r="AJ5" t="n">
         <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AO5" t="n">
         <v>32</v>
       </c>
       <c r="AP5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ5" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR5" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AV5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AY5" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
         <v>40</v>
       </c>
       <c r="BB5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="L3" t="n">
         <v>2.9</v>
@@ -950,19 +950,19 @@
         <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.55</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -971,22 +971,22 @@
         <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
         <v>45</v>
@@ -995,13 +995,13 @@
         <v>60</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF3" t="n">
         <v>120</v>
@@ -1010,7 +1010,7 @@
         <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AI3" t="n">
         <v>9.25</v>
@@ -1022,19 +1022,19 @@
         <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO3" t="n">
         <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ3" t="n">
         <v>150</v>
@@ -1046,10 +1046,10 @@
         <v>500</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV3" t="n">
         <v>90</v>
@@ -1058,7 +1058,7 @@
         <v>3.9</v>
       </c>
       <c r="AX3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
         <v>24</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1141,10 +1141,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1168,10 +1168,10 @@
         <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>29</v>
@@ -1180,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1192,16 +1192,16 @@
         <v>126</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1231,7 +1231,7 @@
         <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="H5" t="n">
         <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
         <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1320,7 +1320,7 @@
         <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="Q5" t="n">
         <v>1.55</v>
@@ -1335,28 +1335,28 @@
         <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
         <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
         <v>150</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1365,10 +1365,10 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
         <v>500</v>
@@ -1383,22 +1383,22 @@
         <v>8.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL5" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ5" t="n">
         <v>200</v>
@@ -1407,7 +1407,7 @@
         <v>200</v>
       </c>
       <c r="AS5" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AT5" t="n">
         <v>3.4</v>
@@ -1419,19 +1419,19 @@
         <v>60</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AY5" t="n">
         <v>14.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BB5" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MNIj0jM0</t>
+          <t>fZ7Fb8Dj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z2" t="n">
         <v>19</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>10</v>
-      </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
         <v>41</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>81</v>
-      </c>
       <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>34</v>
-      </c>
       <c r="AS2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>451</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>5.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC2" t="n">
         <v>151</v>
       </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nJe0zKQr</t>
+          <t>MNIj0jM0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>GV San Jose</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
         <v>3.6</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>500</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.27</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.9</v>
+        <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>nJe0zKQr</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,354 +1092,900 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>1.82</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY4" t="n">
         <v>13</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>13</v>
-      </c>
-      <c r="X4" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
+      <c r="AZ4" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD4" t="n">
         <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>MyCLs2Y8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>El Gaish</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lrf80kOO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>rFf4UJrf</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>30/10/2024</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>12:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Skalica</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Slovan Bratislava</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>6.8</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H7" t="n">
         <v>4.75</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I7" t="n">
         <v>1.4</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J7" t="n">
         <v>5.9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K7" t="n">
         <v>2.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L7" t="n">
         <v>1.85</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M7" t="n">
         <v>1.03</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N7" t="n">
         <v>10</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O7" t="n">
         <v>1.17</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P7" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q7" t="n">
         <v>1.55</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R7" t="n">
         <v>2.42</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S7" t="n">
         <v>1.29</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T7" t="n">
         <v>3.4</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U7" t="n">
         <v>1.75</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V7" t="n">
         <v>1.98</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W7" t="n">
         <v>19</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X7" t="n">
         <v>50</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y7" t="n">
         <v>22</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z7" t="n">
         <v>150</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA7" t="n">
         <v>70</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB7" t="n">
         <v>60</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC7" t="n">
         <v>10</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD7" t="n">
         <v>10</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE7" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF7" t="n">
         <v>75</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG7" t="n">
         <v>500</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH7" t="n">
         <v>7.9</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI7" t="n">
         <v>8</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ7" t="n">
         <v>8.75</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK7" t="n">
         <v>10.25</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL7" t="n">
         <v>11.25</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM7" t="n">
         <v>24</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN7" t="n">
         <v>8</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO7" t="n">
         <v>35</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP7" t="n">
         <v>35</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ7" t="n">
         <v>200</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR7" t="n">
         <v>200</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS7" t="n">
         <v>400</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT7" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU7" t="n">
         <v>7.7</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV7" t="n">
         <v>60</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX7" t="n">
         <v>3.4</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY7" t="n">
         <v>6.3</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ7" t="n">
         <v>14.5</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA7" t="n">
         <v>16.5</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB7" t="n">
         <v>37</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC7" t="n">
         <v>150</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
-      <c r="BD5" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GShCScD6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Komarno</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>2.6</v>
@@ -828,7 +828,7 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MNIj0jM0</t>
+          <t>nJe0zKQr</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,170 +910,170 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GV San Jose</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>4.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.78</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>3.2</v>
       </c>
       <c r="R3" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>6.7</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>4.25</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>5.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>4.85</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>9.25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>10.75</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="AS3" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>2.02</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AW3" t="n">
         <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.5</v>
+        <v>3.85</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>13.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BD3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nJe0zKQr</t>
+          <t>MyCLs2Y8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,49 +1102,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.85</v>
       </c>
       <c r="K4" t="n">
         <v>1.82</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1153,73 +1153,73 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA4" t="n">
         <v>60</v>
       </c>
-      <c r="AA4" t="n">
-        <v>45</v>
-      </c>
       <c r="AB4" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="AD4" t="n">
         <v>5.6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>150</v>
       </c>
       <c r="AG4" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.75</v>
       </c>
       <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
         <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>25</v>
       </c>
       <c r="AM4" t="n">
         <v>50</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ4" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR4" t="n">
         <v>250</v>
@@ -1240,22 +1240,22 @@
         <v>51</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AY4" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB4" t="n">
         <v>120</v>
       </c>
       <c r="BC4" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MyCLs2Y8</t>
+          <t>lrf80kOO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.85</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.82</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.65</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.85</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.62</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>2.2</v>
       </c>
-      <c r="U5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W5" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM5" t="n">
         <v>21</v>
       </c>
-      <c r="Y5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AM5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>40</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
+        <v>451</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB5" t="n">
         <v>51</v>
       </c>
-      <c r="AX5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>120</v>
-      </c>
       <c r="BC5" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>rFf4UJrf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>6.8</v>
       </c>
       <c r="H6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="AH6" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AQ6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>451</v>
-      </c>
       <c r="AX6" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AY6" t="n">
-        <v>11</v>
+        <v>6.3</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="BA6" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="BB6" t="n">
+        <v>37</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>150</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rFf4UJrf</t>
+          <t>GShCScD6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,344 +1648,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="I7" t="n">
-        <v>1.4</v>
+        <v>7.1</v>
       </c>
       <c r="J7" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="L7" t="n">
-        <v>1.85</v>
+        <v>6.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>6.3</v>
       </c>
       <c r="X7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI7" t="n">
         <v>50</v>
       </c>
-      <c r="Y7" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>18.5</v>
       </c>
-      <c r="AF7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AR7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8.75</v>
       </c>
-      <c r="AK7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AW7" t="n">
         <v>51</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>6.3</v>
+        <v>40</v>
       </c>
       <c r="AZ7" t="n">
-        <v>14.5</v>
+        <v>45</v>
       </c>
       <c r="BA7" t="n">
-        <v>16.5</v>
+        <v>300</v>
       </c>
       <c r="BB7" t="n">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
-        <v>150</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GShCScD6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Trnava</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Komarno</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fZ7Fb8Dj</t>
+          <t>IFm4IHT9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,167 +728,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
+        <v>17</v>
+      </c>
+      <c r="X2" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
         <v>9.5</v>
       </c>
-      <c r="X2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AL2" t="n">
         <v>12</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AR2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
         <v>51</v>
       </c>
-      <c r="AS2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>41</v>
-      </c>
       <c r="AW2" t="n">
-        <v>451</v>
+        <v>3.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>nJe0zKQr</t>
+          <t>0b5fTYsS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Venezia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>4.25</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
         <v>15</v>
       </c>
-      <c r="Z3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
         <v>23</v>
       </c>
-      <c r="AF3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
         <v>26</v>
       </c>
-      <c r="AP3" t="n">
-        <v>45</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.02</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>51</v>
       </c>
-      <c r="AX3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>30</v>
-      </c>
       <c r="BA3" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MyCLs2Y8</t>
+          <t>fZ7Fb8Dj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1097,174 +1097,174 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.12</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.85</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.82</v>
+        <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.65</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.85</v>
+        <v>1.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>80</v>
-      </c>
       <c r="AC4" t="n">
-        <v>4.65</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AM4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW4" t="n">
+      <c r="AZ4" t="n">
         <v>51</v>
       </c>
-      <c r="AX4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>26</v>
-      </c>
       <c r="BA4" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>nJe0zKQr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>2.57</v>
       </c>
       <c r="I5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>3.15</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AG5" t="n">
-        <v>151</v>
+        <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>4.9</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
         <v>5.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AQ5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rFf4UJrf</t>
+          <t>MyCLs2Y8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.8</v>
+        <v>4.35</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>2.07</v>
       </c>
       <c r="J6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="n">
         <v>5.9</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W6" t="n">
-        <v>19</v>
-      </c>
-      <c r="X6" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8</v>
-      </c>
       <c r="AO6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AP6" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AQ6" t="n">
         <v>200</v>
       </c>
       <c r="AR6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AS6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB6" t="n">
         <v>400</v>
       </c>
-      <c r="AT6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW6" t="n">
+      <c r="BC6" t="n">
         <v>51</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>37</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>150</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,182 +1628,546 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>lrf80kOO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>rFf4UJrf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W8" t="n">
+        <v>19</v>
+      </c>
+      <c r="X8" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>37</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>GShCScD6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>30/10/2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Trnava</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Komarno</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>1.4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H9" t="n">
         <v>4.55</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I9" t="n">
         <v>7.1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J9" t="n">
         <v>1.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K9" t="n">
         <v>2.32</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L9" t="n">
         <v>6.4</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M9" t="n">
         <v>1.05</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N9" t="n">
         <v>8.75</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O9" t="n">
         <v>1.26</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P9" t="n">
         <v>3.65</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q9" t="n">
         <v>1.78</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R9" t="n">
         <v>2.02</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S9" t="n">
         <v>1.38</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U9" t="n">
         <v>2.02</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V9" t="n">
         <v>1.7</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W9" t="n">
         <v>6.3</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X9" t="n">
         <v>6.7</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y9" t="n">
         <v>9</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB9" t="n">
         <v>32</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC9" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE9" t="n">
         <v>23</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF9" t="n">
         <v>120</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG9" t="n">
         <v>1250</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH9" t="n">
         <v>16</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI9" t="n">
         <v>50</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ9" t="n">
         <v>24</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK9" t="n">
         <v>175</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL9" t="n">
         <v>90</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM9" t="n">
         <v>90</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN9" t="n">
         <v>3.15</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO9" t="n">
         <v>6.4</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP9" t="n">
         <v>18</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ9" t="n">
         <v>18.5</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR9" t="n">
         <v>50</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS9" t="n">
         <v>250</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT9" t="n">
         <v>2.95</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU9" t="n">
         <v>8.75</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV9" t="n">
         <v>90</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC9" t="n">
         <v>51</v>
       </c>
-      <c r="AX7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="BD9" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J2" t="n">
         <v>7</v>
@@ -777,22 +777,22 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
@@ -816,19 +816,19 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>6.5</v>
@@ -843,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -888,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1141,10 +1141,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1192,7 +1192,7 @@
         <v>126</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1213,7 +1213,7 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="K5" t="n">
         <v>1.75</v>
       </c>
       <c r="L5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.75</v>
@@ -1335,31 +1335,31 @@
         <v>2.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W5" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
         <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD5" t="n">
         <v>5.6</v>
@@ -1374,37 +1374,37 @@
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AQ5" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS5" t="n">
         <v>500</v>
@@ -1422,13 +1422,13 @@
         <v>3.85</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA5" t="n">
         <v>150</v>
@@ -1687,10 +1687,10 @@
         <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1839,64 +1839,64 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AA8" t="n">
         <v>70</v>
@@ -1905,46 +1905,46 @@
         <v>60</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO8" t="n">
         <v>35</v>
       </c>
       <c r="AP8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ8" t="n">
         <v>200</v>
@@ -1953,25 +1953,25 @@
         <v>200</v>
       </c>
       <c r="AS8" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AX8" t="n">
         <v>6.3</v>
       </c>
       <c r="AY8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ8" t="n">
         <v>16.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nJe0zKQr</t>
+          <t>MyCLs2Y8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="J5" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AP5" t="n">
         <v>40</v>
       </c>
       <c r="AQ5" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS5" t="n">
         <v>500</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AX5" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="BA5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BB5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MyCLs2Y8</t>
+          <t>lrf80kOO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.35</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.82</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.62</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.3</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.7</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>45</v>
-      </c>
       <c r="AN6" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.18</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>CWHk9jo1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L7" t="n">
         <v>4</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.6</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.62</v>
       </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
         <v>13</v>
       </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>67</v>
       </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1848,10 +1848,10 @@
         <v>1.39</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.83</v>
@@ -1860,40 +1860,40 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R8" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="S8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
         <v>55</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
         <v>175</v>
@@ -1902,25 +1902,25 @@
         <v>70</v>
       </c>
       <c r="AB8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
         <v>8.5</v>
@@ -1929,13 +1929,13 @@
         <v>8.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AL8" t="n">
         <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN8" t="n">
         <v>8.25</v>
@@ -1950,34 +1950,34 @@
         <v>200</v>
       </c>
       <c r="AR8" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX8" t="n">
         <v>6.3</v>
       </c>
       <c r="AY8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>16.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB8" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MyCLs2Y8</t>
+          <t>fyHbbUjD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.35</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.07</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>2.72</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>4.7</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.82</v>
+        <v>1.53</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.7</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.7</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.25</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>30</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
         <v>8</v>
       </c>
-      <c r="AV5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>3.65</v>
-      </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>MyCLs2Y8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>4.35</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.3</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
       </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX6" t="n">
         <v>11</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AY6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CWHk9jo1</t>
+          <t>lrf80kOO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.62</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>2.2</v>
       </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W7" t="n">
+        <v>13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
         <v>6</v>
       </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AO7" t="n">
         <v>19</v>
       </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
         <v>101</v>
       </c>
-      <c r="AS7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>401</v>
-      </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rFf4UJrf</t>
+          <t>CWHk9jo1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.9</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.55</v>
+        <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.15</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.47</v>
+        <v>2.88</v>
       </c>
       <c r="R8" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>3.55</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>400</v>
+        <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.75</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.25</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.55</v>
+        <v>2.2</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>6.3</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16.5</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GShCScD6</t>
+          <t>rFf4UJrf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,162 +2012,344 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Skalica</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Slovan Bratislava</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>6.9</v>
       </c>
       <c r="H9" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.1</v>
+        <v>1.38</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="L9" t="n">
-        <v>6.4</v>
+        <v>1.82</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>21</v>
+      </c>
+      <c r="X9" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH9" t="n">
         <v>8.75</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AI9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AK9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP9" t="n">
         <v>32</v>
       </c>
-      <c r="AC9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AQ9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>16</v>
       </c>
-      <c r="AI9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>300</v>
-      </c>
       <c r="BA9" t="n">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="BB9" t="n">
-        <v>501</v>
+        <v>150</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
       </c>
       <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GShCScD6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Komarno</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -771,28 +771,28 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>17</v>
@@ -816,13 +816,13 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>351</v>
@@ -843,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -888,7 +888,7 @@
         <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.75</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1708,19 +1708,19 @@
         <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>41</v>
       </c>
       <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
         <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>13</v>
@@ -1729,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1741,22 +1741,22 @@
         <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1783,10 +1783,10 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
@@ -1798,7 +1798,7 @@
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
         <v>451</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fZ7Fb8Dj</t>
+          <t>Y96v2dqT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,50 +1092,50 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.5</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>4.33</v>
@@ -1144,118 +1144,118 @@
         <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
         <v>13</v>
       </c>
       <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
         <v>126</v>
       </c>
-      <c r="AH4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>101</v>
-      </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC4" t="n">
         <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>451</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fyHbbUjD</t>
+          <t>rcXrBZLq</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,38 +1274,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
         <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1314,19 +1314,19 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="S5" t="n">
         <v>1.29</v>
@@ -1335,16 +1335,16 @@
         <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
@@ -1356,7 +1356,7 @@
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>17</v>
@@ -1365,7 +1365,7 @@
         <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1374,13 +1374,13 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
@@ -1392,13 +1392,13 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1413,7 +1413,7 @@
         <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1431,22 +1431,22 @@
         <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MyCLs2Y8</t>
+          <t>fZ7Fb8Dj</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,174 +1461,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.35</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.07</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.72</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.15</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.38</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.7</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
         <v>21</v>
       </c>
-      <c r="AF6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.9</v>
+        <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>fyHbbUjD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>15</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AQ7" t="n">
         <v>19</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>451</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CWHk9jo1</t>
+          <t>MyCLs2Y8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>4.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>2.07</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P8" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
         <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX8" t="n">
         <v>11</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>rFf4UJrf</t>
+          <t>lrf80kOO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,355 +2002,2539 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Skalica</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Slovan Bratislava</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.9</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>5.9</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
         <v>21</v>
       </c>
-      <c r="X9" t="n">
-        <v>55</v>
-      </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.75</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AG9" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.25</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BB9" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>CWHk9jo1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>401</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>YHET3e9L</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>QFg8dD1e</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mantova</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C8Z2IfOE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rBIEspW6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dundee FC</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>29</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>l8LMuO0J</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dundee Utd</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>QZeJu6GP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dInkzpvm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hptbYN8a</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>St Johnstone</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>GShCScD6</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>30/10/2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Trnava</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Komarno</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G19" t="n">
         <v>1.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>4.55</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>7.1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J19" t="n">
         <v>1.9</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K19" t="n">
         <v>2.32</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>6.4</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M19" t="n">
         <v>1.05</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N19" t="n">
         <v>8.75</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O19" t="n">
         <v>1.26</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P19" t="n">
         <v>3.65</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q19" t="n">
         <v>1.78</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R19" t="n">
         <v>2.02</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S19" t="n">
         <v>1.38</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T19" t="n">
         <v>3</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U19" t="n">
         <v>2.02</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V19" t="n">
         <v>1.7</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W19" t="n">
         <v>6.3</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X19" t="n">
         <v>6.7</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y19" t="n">
         <v>9</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB19" t="n">
         <v>32</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC19" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE19" t="n">
         <v>23</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF19" t="n">
         <v>120</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG19" t="n">
         <v>1250</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH19" t="n">
         <v>16</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI19" t="n">
         <v>50</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ19" t="n">
         <v>24</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK19" t="n">
         <v>175</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL19" t="n">
         <v>90</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM19" t="n">
         <v>90</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN19" t="n">
         <v>3.15</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO19" t="n">
         <v>6.4</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP19" t="n">
         <v>18</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR19" t="n">
         <v>50</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS19" t="n">
         <v>250</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT19" t="n">
         <v>2.95</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU19" t="n">
         <v>8.75</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV19" t="n">
         <v>90</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW19" t="n">
         <v>8</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX19" t="n">
         <v>40</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY19" t="n">
         <v>45</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ19" t="n">
         <v>300</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA19" t="n">
         <v>350</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB19" t="n">
         <v>501</v>
       </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
+      <c r="BC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>foM2ULfJ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MiElhPnQ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N21" t="n">
+        <v>21</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>11</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>QJ9Kn3Am</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W22" t="n">
+        <v>10</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
@@ -1505,16 +1505,16 @@
         <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>1.57</v>
@@ -1556,7 +1556,7 @@
         <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1616,10 +1616,10 @@
         <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MyCLs2Y8</t>
+          <t>Q94GGB6s</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.82</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.7</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>21</v>
       </c>
-      <c r="AF8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AL8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
         <v>201</v>
       </c>
-      <c r="AH8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>500</v>
-      </c>
       <c r="AT8" t="n">
-        <v>2.18</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>MyCLs2Y8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>El Gaish</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>4.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.62</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>7.9</v>
       </c>
       <c r="X9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX9" t="n">
         <v>11</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>10</v>
-      </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="BA9" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BC9" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CWHk9jo1</t>
+          <t>lrf80kOO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R10" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
         <v>26</v>
       </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
       <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
       </c>
       <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>34</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>101</v>
       </c>
-      <c r="AS10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB10" t="n">
+      <c r="BC10" t="n">
         <v>401</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>81</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YHET3e9L</t>
+          <t>CWHk9jo1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I11" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.88</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="AH11" t="n">
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QFg8dD1e</t>
+          <t>YHET3e9L</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>26</v>
-      </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
       </c>
       <c r="AK12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>21</v>
       </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C8Z2IfOE</t>
+          <t>QFg8dD1e</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.05</v>
       </c>
-      <c r="L13" t="n">
-        <v>5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
         <v>501</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rBIEspW6</t>
+          <t>C8Z2IfOE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
         <v>9</v>
       </c>
-      <c r="I14" t="n">
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>29</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>29</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
         <v>41</v>
       </c>
-      <c r="AI14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>101</v>
-      </c>
       <c r="AM14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
         <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX14" t="n">
         <v>26</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>51</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l8LMuO0J</t>
+          <t>rBIEspW6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,169 +3104,169 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.13</v>
       </c>
       <c r="H15" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.4</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L15" t="n">
+        <v>11</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>29</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R15" t="n">
         <v>4</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="S15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="n">
         <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
         <v>251</v>
       </c>
       <c r="AH15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU15" t="n">
         <v>10</v>
       </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY15" t="n">
         <v>41</v>
       </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
+      <c r="AZ15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD15" t="n">
         <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>QZeJu6GP</t>
+          <t>l8LMuO0J</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,31 +3286,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3325,16 +3325,16 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -3346,25 +3346,25 @@
         <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3376,43 +3376,43 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
         <v>34</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>41</v>
       </c>
-      <c r="AN16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>29</v>
-      </c>
       <c r="AR16" t="n">
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3421,25 +3421,25 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA16" t="n">
         <v>81</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>101</v>
       </c>
       <c r="BB16" t="n">
         <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dInkzpvm</t>
+          <t>QZeJu6GP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,85 +3468,85 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
         <v>3</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="n">
         <v>15</v>
       </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,46 +3555,46 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
         <v>19</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AQ17" t="n">
         <v>29</v>
       </c>
-      <c r="AN17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>67</v>
-      </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3603,25 +3603,25 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hptbYN8a</t>
+          <t>dInkzpvm</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3701,109 +3701,109 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI18" t="n">
         <v>10</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
         <v>19</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
         <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY18" t="n">
         <v>23</v>
       </c>
-      <c r="AY18" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GShCScD6</t>
+          <t>hptbYN8a</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>7.1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.9</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
         <v>23</v>
       </c>
-      <c r="AF19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AZ19" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
         <v>501</v>
       </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
       <c r="BD19" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>foM2ULfJ</t>
+          <t>nqP5q61f</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.05</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
       </c>
       <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL20" t="n">
         <v>15</v>
       </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
         <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY20" t="n">
         <v>19</v>
       </c>
-      <c r="AY20" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MiElhPnQ</t>
+          <t>GShCScD6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
-        <v>5.5</v>
+        <v>4.55</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K21" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>8.75</v>
       </c>
       <c r="O21" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>6</v>
+        <v>3.65</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="R21" t="n">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="S21" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AC21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>23</v>
       </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17</v>
-      </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="n">
-        <v>151</v>
+        <v>1250</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="AO21" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AP21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AS21" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="AT21" t="n">
-        <v>4</v>
+        <v>2.95</v>
       </c>
       <c r="AU21" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV21" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AW21" t="n">
         <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AY21" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AZ21" t="n">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>QJ9Kn3Am</t>
+          <t>foM2ULfJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,121 +4378,121 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
         <v>17</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
         <v>15</v>
       </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>12</v>
-      </c>
       <c r="AF22" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
         <v>11</v>
       </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AP22" t="n">
         <v>21</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>19</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4501,39 +4501,403 @@
         <v>51</v>
       </c>
       <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MiElhPnQ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11</v>
+      </c>
+      <c r="X23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>QJ9Kn3Am</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W24" t="n">
+        <v>10</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
         <v>101</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AT24" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AU24" t="n">
         <v>7</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV24" t="n">
         <v>41</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AW24" t="n">
         <v>5</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AX24" t="n">
         <v>15</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AY24" t="n">
         <v>21</v>
       </c>
-      <c r="AZ22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB22" t="n">
+      <c r="AZ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
         <v>126</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BC24" t="n">
         <v>351</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD24" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD24"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -891,7 +891,7 @@
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
@@ -1484,37 +1484,37 @@
         <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
         <v>1.57</v>
@@ -1523,7 +1523,7 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG6" t="n">
         <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1577,25 +1577,25 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
@@ -1604,7 +1604,7 @@
         <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1616,10 +1616,10 @@
         <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="I9" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L9" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -2060,40 +2060,40 @@
         <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="n">
         <v>4.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
         <v>150</v>
@@ -2105,25 +2105,25 @@
         <v>5</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AP9" t="n">
         <v>40</v>
@@ -2132,13 +2132,13 @@
         <v>200</v>
       </c>
       <c r="AR9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS9" t="n">
         <v>500</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,22 +2147,22 @@
         <v>100</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lrf80kOO</t>
+          <t>CWHk9jo1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.62</v>
       </c>
-      <c r="R10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.3</v>
-      </c>
       <c r="T10" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI10" t="n">
         <v>13</v>
       </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
         <v>34</v>
       </c>
-      <c r="AG10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>67</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="BA10" t="n">
         <v>126</v>
       </c>
-      <c r="AT10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="BC10" t="n">
-        <v>401</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CWHk9jo1</t>
+          <t>YHET3e9L</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,157 +2376,157 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
         <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
         <v>67</v>
       </c>
-      <c r="BA11" t="n">
-        <v>126</v>
-      </c>
       <c r="BB11" t="n">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YHET3e9L</t>
+          <t>QFg8dD1e</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.75</v>
       </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
         <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QFg8dD1e</t>
+          <t>C8Z2IfOE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.4</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.2</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.7</v>
       </c>
-      <c r="V13" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
         <v>17</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>26</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH13" t="n">
         <v>10</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
         <v>6</v>
       </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AX13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY13" t="n">
         <v>41</v>
       </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC13" t="n">
         <v>81</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C8Z2IfOE</t>
+          <t>rBIEspW6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,179 +2912,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.4</v>
       </c>
-      <c r="I14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L14" t="n">
+        <v>11</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>29</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T14" t="n">
         <v>5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AM14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN14" t="n">
         <v>3.6</v>
       </c>
       <c r="AO14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU14" t="n">
         <v>10</v>
       </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>rBIEspW6</t>
+          <t>l8LMuO0J</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,169 +3104,169 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.13</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
         <v>9</v>
       </c>
-      <c r="I15" t="n">
+      <c r="Z15" t="n">
         <v>19</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>29</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W15" t="n">
-        <v>13</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8</v>
-      </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>251</v>
       </c>
       <c r="AH15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK15" t="n">
         <v>41</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA15" t="n">
         <v>81</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA15" t="n">
+      <c r="BB15" t="n">
         <v>201</v>
       </c>
-      <c r="BB15" t="n">
-        <v>251</v>
-      </c>
       <c r="BC15" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>l8LMuO0J</t>
+          <t>QZeJu6GP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,31 +3286,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3325,16 +3325,16 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -3346,25 +3346,25 @@
         <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3376,43 +3376,43 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
         <v>41</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>29</v>
       </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
       <c r="AR16" t="n">
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3421,25 +3421,25 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
         <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>QZeJu6GP</t>
+          <t>dInkzpvm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,85 +3468,85 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3555,46 +3555,46 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
@@ -3603,25 +3603,25 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY17" t="n">
         <v>23</v>
       </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dInkzpvm</t>
+          <t>hptbYN8a</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3701,109 +3701,109 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
         <v>29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
         <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hptbYN8a</t>
+          <t>nqP5q61f</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3832,157 +3832,157 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
         <v>4</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.36</v>
       </c>
-      <c r="P19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AK19" t="n">
         <v>17</v>
       </c>
-      <c r="AA19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>34</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>81</v>
-      </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
         <v>501</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nqP5q61f</t>
+          <t>GShCScD6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Trnava</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>4.65</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>1.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="L20" t="n">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>6.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>41</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>29</v>
+        <v>12.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW20" t="n">
         <v>8</v>
       </c>
-      <c r="AI20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4</v>
-      </c>
       <c r="AX20" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="AZ20" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="BA20" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="BB20" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BC20" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GShCScD6</t>
+          <t>foM2ULfJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4186,179 +4186,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>4.55</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>7.1</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>6.7</v>
+        <v>9.5</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>1250</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>foM2ULfJ</t>
+          <t>MiElhPnQ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4378,160 +4378,160 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="L22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>21</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T22" t="n">
         <v>4</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>10</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB22" t="n">
         <v>19</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AC22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
         <v>17</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AF22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX22" t="n">
         <v>29</v>
       </c>
-      <c r="AC22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>21</v>
-      </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA22" t="n">
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4540,7 +4540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MiElhPnQ</t>
+          <t>QJ9Kn3Am</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4560,344 +4560,162 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.44</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="R23" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>9</v>
       </c>
       <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>11</v>
       </c>
-      <c r="AA23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AK23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="n">
         <v>19</v>
       </c>
-      <c r="AC23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AQ23" t="n">
         <v>41</v>
       </c>
-      <c r="AG23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU23" t="n">
         <v>7</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>41</v>
       </c>
       <c r="AW23" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
         <v>351</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>QJ9Kn3Am</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
-        <v>15</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W24" t="n">
-        <v>10</v>
-      </c>
-      <c r="X24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD24" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
         <v>7</v>
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,22 +789,22 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
         <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA2" t="n">
         <v>51</v>
@@ -816,19 +816,19 @@
         <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
         <v>6.5</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>12</v>
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO2" t="n">
         <v>41</v>
@@ -861,7 +861,7 @@
         <v>151</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
@@ -870,10 +870,10 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX2" t="n">
         <v>7</v>
@@ -891,7 +891,7 @@
         <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -977,7 +977,7 @@
         <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1013,13 +1013,13 @@
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -1317,10 +1317,10 @@
         <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>1.57</v>
@@ -1335,10 +1335,10 @@
         <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
@@ -1359,13 +1359,13 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
         <v>17</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1392,13 +1392,13 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1431,7 +1431,7 @@
         <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="K9" t="n">
         <v>1.82</v>
       </c>
       <c r="L9" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -2063,28 +2063,28 @@
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
         <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="n">
         <v>4.7</v>
@@ -2102,19 +2102,19 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
         <v>50</v>
@@ -2123,13 +2123,13 @@
         <v>5.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ9" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR9" t="n">
         <v>250</v>
@@ -2138,7 +2138,7 @@
         <v>500</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,22 +2147,22 @@
         <v>100</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AX9" t="n">
         <v>11.75</v>
       </c>
       <c r="AY9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB9" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2206,13 +2206,13 @@
         <v>2.55</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
@@ -2269,7 +2269,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
         <v>5.5</v>
@@ -2299,7 +2299,7 @@
         <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
@@ -2344,7 +2344,7 @@
         <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2749,16 +2749,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
@@ -2767,22 +2767,22 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
         <v>1.5</v>
@@ -2791,16 +2791,16 @@
         <v>2.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2815,19 +2815,19 @@
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
@@ -2845,10 +2845,10 @@
         <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2881,16 +2881,16 @@
         <v>26</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
         <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -3498,7 +3498,7 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3528,7 +3528,7 @@
         <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -4023,49 +4023,49 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="K20" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S20" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
         <v>1.75</v>
@@ -4080,22 +4080,22 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
         <v>30</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
         <v>110</v>
@@ -4104,16 +4104,16 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL20" t="n">
         <v>90</v>
@@ -4125,16 +4125,16 @@
         <v>3.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS20" t="n">
         <v>250</v>
@@ -4143,13 +4143,13 @@
         <v>3.05</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV20" t="n">
         <v>90</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX20" t="n">
         <v>40</v>
@@ -4161,7 +4161,7 @@
         <v>300</v>
       </c>
       <c r="BA20" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB20" t="n">
         <v>501</v>
@@ -4569,22 +4569,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -4599,10 +4599,10 @@
         <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
         <v>1.3</v>
@@ -4617,22 +4617,22 @@
         <v>2.38</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA23" t="n">
         <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>15</v>
@@ -4650,28 +4650,28 @@
         <v>126</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
         <v>19</v>
@@ -4704,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="AZ23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -938,25 +938,25 @@
         <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.2</v>
@@ -977,7 +977,7 @@
         <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
@@ -989,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1123,55 +1123,55 @@
         <v>1.83</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1180,19 +1180,19 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH4" t="n">
         <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1201,7 +1201,7 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1210,13 +1210,13 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
         <v>6.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1228,7 +1228,7 @@
         <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H5" t="n">
         <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>1.91</v>
@@ -1335,10 +1335,10 @@
         <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
@@ -1359,13 +1359,13 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
         <v>7</v>
@@ -1413,7 +1413,7 @@
         <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1431,7 +1431,7 @@
         <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="n">
         <v>201</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
         <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
         <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1693,28 +1693,28 @@
         <v>2.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
         <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
@@ -1747,16 +1747,16 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
         <v>6.5</v>
@@ -1765,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
         <v>34</v>
@@ -1792,10 +1792,10 @@
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MyCLs2Y8</t>
+          <t>CWHk9jo1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,59 +2002,59 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>El Gaish</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.35</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I9" t="n">
-        <v>2.07</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>4.85</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.62</v>
@@ -2063,118 +2063,118 @@
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.8</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CWHk9jo1</t>
+          <t>YHET3e9L</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
       </c>
-      <c r="BA10" t="n">
-        <v>126</v>
-      </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YHET3e9L</t>
+          <t>QFg8dD1e</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,160 +2376,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.75</v>
       </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
         <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
         <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX11" t="n">
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QFg8dD1e</t>
+          <t>C8Z2IfOE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
         <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>26</v>
       </c>
       <c r="AB12" t="n">
         <v>34</v>
       </c>
       <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH12" t="n">
         <v>10</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
         <v>6</v>
       </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AX12" t="n">
         <v>26</v>
       </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AY12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>81</v>
       </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>41</v>
-      </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C8Z2IfOE</t>
+          <t>rBIEspW6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,179 +2730,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.13</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>1.44</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L13" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>26</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T13" t="n">
         <v>5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
         <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AA13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD13" t="n">
         <v>17</v>
       </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU13" t="n">
         <v>10</v>
       </c>
-      <c r="AI13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
         <v>15</v>
       </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AX13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA13" t="n">
         <v>201</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>126</v>
-      </c>
       <c r="BB13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rBIEspW6</t>
+          <t>l8LMuO0J</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,169 +2922,169 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.13</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
         <v>9</v>
       </c>
-      <c r="I14" t="n">
+      <c r="Z14" t="n">
         <v>19</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>11</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>29</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T14" t="n">
-        <v>5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>13</v>
-      </c>
-      <c r="X14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>8</v>
-      </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
         <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA14" t="n">
         <v>81</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA14" t="n">
+      <c r="BB14" t="n">
         <v>201</v>
       </c>
-      <c r="BB14" t="n">
-        <v>251</v>
-      </c>
       <c r="BC14" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>l8LMuO0J</t>
+          <t>QZeJu6GP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,31 +3104,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3143,16 +3143,16 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>1.8</v>
@@ -3164,25 +3164,25 @@
         <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3194,43 +3194,43 @@
         <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>29</v>
       </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
       <c r="AR15" t="n">
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3239,25 +3239,25 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
         <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD15" t="n">
         <v>126</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>QZeJu6GP</t>
+          <t>dInkzpvm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,85 +3286,85 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3373,46 +3373,46 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
         <v>8</v>
@@ -3421,25 +3421,25 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
         <v>23</v>
       </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dInkzpvm</t>
+          <t>hptbYN8a</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,37 +3468,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -3519,109 +3519,109 @@
         <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W17" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
         <v>17</v>
       </c>
-      <c r="Y17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
       <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
         <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>41</v>
       </c>
       <c r="AC17" t="n">
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hptbYN8a</t>
+          <t>nqP5q61f</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3650,157 +3650,157 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.36</v>
       </c>
-      <c r="P18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AK18" t="n">
         <v>17</v>
       </c>
-      <c r="AA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>34</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>81</v>
-      </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
         <v>501</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nqP5q61f</t>
+          <t>foM2ULfJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3822,179 +3822,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>1.91</v>
-      </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>11</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W19" t="n">
-        <v>12</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="AP19" t="n">
         <v>21</v>
       </c>
-      <c r="Y19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD19" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GShCScD6</t>
+          <t>MiElhPnQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4004,179 +4004,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trnava</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="L20" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="O20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.22</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.35</v>
-      </c>
       <c r="T20" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="W20" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="X20" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.25</v>
+        <v>23</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>17</v>
       </c>
-      <c r="AI20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>25</v>
-      </c>
       <c r="AK20" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AP20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
         <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AS20" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AY20" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>foM2ULfJ</t>
+          <t>QJ9Kn3Am</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4196,526 +4196,162 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
         <v>3.4</v>
       </c>
-      <c r="I21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y21" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
         <v>17</v>
       </c>
       <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK21" t="n">
         <v>29</v>
       </c>
-      <c r="AC21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX21" t="n">
         <v>15</v>
       </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP21" t="n">
+      <c r="AY21" t="n">
         <v>21</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD21" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>MiElhPnQ</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>St. Gallen</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>21</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P22" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>11</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>QJ9Kn3Am</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>15</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W23" t="n">
-        <v>11</v>
-      </c>
-      <c r="X23" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD23" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.33</v>
@@ -756,13 +756,13 @@
         <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -825,7 +825,7 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH2" t="n">
         <v>6.5</v>
@@ -858,7 +858,7 @@
         <v>151</v>
       </c>
       <c r="AR2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="n">
         <v>351</v>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,7 +876,7 @@
         <v>3.25</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY2" t="n">
         <v>19</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -947,10 +947,10 @@
         <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1013,13 +1013,13 @@
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -1120,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1255,7 +1255,7 @@
         <v>301</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fZ7Fb8Dj</t>
+          <t>fyHbbUjD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,134 +1456,134 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.6</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP6" t="n">
         <v>15</v>
       </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1592,43 +1592,43 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fyHbbUjD</t>
+          <t>Q94GGB6s</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,55 +1648,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>2.03</v>
       </c>
       <c r="R7" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.8</v>
@@ -1705,100 +1705,100 @@
         <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AK7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AD7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
         <v>201</v>
       </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q94GGB6s</t>
+          <t>CWHk9jo1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T8" t="n">
         <v>2.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
         <v>81</v>
       </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CWHk9jo1</t>
+          <t>YHET3e9L</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,157 +2012,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
         <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YHET3e9L</t>
+          <t>QFg8dD1e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,160 +2194,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>2.15</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
         <v>2.88</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W10" t="n">
+        <v>11</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
         <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QFg8dD1e</t>
+          <t>C8Z2IfOE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,160 +2376,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
         <v>17</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH11" t="n">
         <v>10</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
         <v>6</v>
       </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AX11" t="n">
         <v>26</v>
       </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>81</v>
       </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C8Z2IfOE</t>
+          <t>rBIEspW6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.13</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>2.6</v>
+        <v>1.44</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
+        <v>11</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>26</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T12" t="n">
         <v>5</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="n">
         <v>17</v>
       </c>
-      <c r="AB12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU12" t="n">
         <v>10</v>
       </c>
-      <c r="AI12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ12" t="n">
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
         <v>15</v>
       </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="AX12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA12" t="n">
         <v>201</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>126</v>
-      </c>
       <c r="BB12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>rBIEspW6</t>
+          <t>l8LMuO0J</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,169 +2740,169 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.13</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
         <v>19</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>26</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>13</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
         <v>81</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA13" t="n">
+      <c r="BB13" t="n">
         <v>201</v>
       </c>
-      <c r="BB13" t="n">
-        <v>251</v>
-      </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>l8LMuO0J</t>
+          <t>QZeJu6GP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,37 +2922,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2961,16 +2961,16 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
@@ -2982,25 +2982,25 @@
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3012,43 +3012,43 @@
         <v>251</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>29</v>
       </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3057,25 +3057,25 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
         <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>126</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QZeJu6GP</t>
+          <t>dInkzpvm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,85 +3104,85 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3191,46 +3191,46 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3239,25 +3239,25 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY15" t="n">
         <v>23</v>
       </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
         <v>126</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dInkzpvm</t>
+          <t>hptbYN8a</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,31 +3286,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.3</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
         <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -3343,28 +3343,28 @@
         <v>1.91</v>
       </c>
       <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
         <v>9.5</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
         <v>17</v>
       </c>
-      <c r="Y16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>29</v>
       </c>
-      <c r="AB16" t="n">
-        <v>41</v>
-      </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3376,40 +3376,40 @@
         <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
@@ -3421,25 +3421,25 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD16" t="n">
         <v>126</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hptbYN8a</t>
+          <t>nqP5q61f</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.36</v>
       </c>
-      <c r="P17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AK17" t="n">
         <v>17</v>
       </c>
-      <c r="AA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>34</v>
       </c>
-      <c r="AZ17" t="n">
-        <v>81</v>
-      </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>501</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nqP5q61f</t>
+          <t>foM2ULfJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3640,179 +3640,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="J18" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
         <v>11</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W18" t="n">
-        <v>12</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="AP18" t="n">
         <v>21</v>
       </c>
-      <c r="Y18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD18" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>foM2ULfJ</t>
+          <t>MiElhPnQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,160 +3832,160 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="L19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T19" t="n">
         <v>4</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
       </c>
       <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
         <v>19</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AC19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
         <v>17</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX19" t="n">
         <v>29</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>21</v>
-      </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MiElhPnQ</t>
+          <t>QJ9Kn3Am</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4014,344 +4014,162 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W20" t="n">
         <v>11</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
         <v>11</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AF20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>11</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
         <v>19</v>
       </c>
-      <c r="AC20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY20" t="n">
         <v>21</v>
       </c>
-      <c r="AI20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
         <v>351</v>
       </c>
       <c r="BD20" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>QJ9Kn3Am</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W21" t="n">
-        <v>11</v>
-      </c>
-      <c r="X21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD21" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IFm4IHT9</t>
+          <t>Y96v2dqT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,37 +738,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.5</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
         <v>7.5</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,46 +777,46 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>41</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,73 +825,73 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AP2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AX2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>151</v>
       </c>
-      <c r="AR2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>21</v>
-      </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0b5fTYsS</t>
+          <t>rcXrBZLq</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,160 +920,160 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W3" t="n">
         <v>8.5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
         <v>8</v>
       </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AX3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AY3" t="n">
         <v>34</v>
       </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Y96v2dqT</t>
+          <t>fyHbbUjD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,113 +1092,113 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
         <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.91</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>7.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD4" t="n">
         <v>9.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19</v>
-      </c>
       <c r="AI4" t="n">
         <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
@@ -1207,31 +1207,31 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>6.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1240,31 +1240,31 @@
         <v>8.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rcXrBZLq</t>
+          <t>Q94GGB6s</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AI5" t="n">
         <v>11</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY5" t="n">
         <v>23</v>
       </c>
-      <c r="AC5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
         <v>67</v>
       </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>126</v>
-      </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fyHbbUjD</t>
+          <t>AqaoMXrK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,154 +1466,154 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.83</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>17</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
         <v>5</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
         <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q94GGB6s</t>
+          <t>UBEWMhkJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,173 +1638,173 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.1</v>
       </c>
-      <c r="L7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
         <v>17</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>2.8</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>1.83</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
@@ -1887,19 +1887,19 @@
         <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1920,28 +1920,28 @@
         <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
@@ -1968,7 +1968,7 @@
         <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -1977,7 +1977,7 @@
         <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2451,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2475,7 +2475,7 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2487,13 +2487,13 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
@@ -2514,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>34</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2597,25 +2597,25 @@
         <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="S12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
         <v>8</v>
@@ -2624,7 +2624,7 @@
         <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
@@ -2636,46 +2636,46 @@
         <v>26</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
         <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL12" t="n">
         <v>81</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>101</v>
-      </c>
       <c r="AM12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN12" t="n">
         <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>26</v>
@@ -2684,7 +2684,7 @@
         <v>81</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU12" t="n">
         <v>10</v>
@@ -2693,7 +2693,7 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>51</v>
@@ -2702,10 +2702,10 @@
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
         <v>251</v>
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3710,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -3719,13 +3719,13 @@
         <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3737,10 +3737,10 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3761,16 +3761,16 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
         <v>151</v>
@@ -3788,7 +3788,7 @@
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -756,43 +756,43 @@
         <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -801,22 +801,22 @@
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,16 +825,16 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>81</v>
@@ -846,34 +846,34 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -891,7 +891,7 @@
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -950,7 +950,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
         <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="n">
         <v>2.6</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1147,28 +1147,28 @@
         <v>2.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1192,34 +1192,34 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1228,28 +1228,28 @@
         <v>101</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2051,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2069,19 +2069,19 @@
         <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2102,58 +2102,58 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>9</v>
-      </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2227,52 +2227,52 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.95</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
         <v>34</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -2287,16 +2287,16 @@
         <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -2305,46 +2305,46 @@
         <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>501</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2415,10 +2415,10 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2433,19 +2433,19 @@
         <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2454,7 +2454,7 @@
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
@@ -2463,34 +2463,34 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2505,28 +2505,28 @@
         <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
         <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>81</v>
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S12" t="n">
         <v>1.18</v>
@@ -2609,10 +2609,10 @@
         <v>4.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
         <v>12</v>
@@ -2621,7 +2621,7 @@
         <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>8</v>
@@ -2630,22 +2630,22 @@
         <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
         <v>41</v>
@@ -2654,31 +2654,31 @@
         <v>67</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP12" t="n">
         <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
         <v>81</v>
@@ -2687,31 +2687,31 @@
         <v>4.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="n">
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA12" t="n">
         <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2800,22 +2800,22 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2830,13 +2830,13 @@
         <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>41</v>
@@ -2851,13 +2851,13 @@
         <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2878,10 +2878,10 @@
         <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
         <v>67</v>
@@ -2961,10 +2961,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>2.88</v>
@@ -3134,7 +3134,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3170,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="n">
         <v>29</v>
@@ -3200,10 +3200,10 @@
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3254,7 +3254,7 @@
         <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
         <v>5.5</v>
@@ -3853,7 +3853,7 @@
         <v>1.91</v>
       </c>
       <c r="K19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
@@ -3871,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S19" t="n">
         <v>1.22</v>
@@ -3883,19 +3883,19 @@
         <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
         <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -3931,7 +3931,7 @@
         <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="n">
         <v>41</v>
@@ -3961,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
         <v>41</v>
@@ -3973,7 +3973,7 @@
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>81</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -4047,16 +4047,16 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S20" t="n">
         <v>1.3</v>
@@ -4077,13 +4077,13 @@
         <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>21</v>
@@ -4095,43 +4095,43 @@
         <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>19</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4149,7 +4149,7 @@
         <v>41</v>
       </c>
       <c r="AW20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
         <v>15</v>
@@ -4158,7 +4158,7 @@
         <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,76 +747,76 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I2" t="n">
         <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,55 +825,55 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP2" t="n">
         <v>17</v>
       </c>
-      <c r="AI2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="n">
         <v>3.4</v>
       </c>
-      <c r="AO2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3</v>
-      </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -891,7 +891,7 @@
         <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.91</v>
@@ -950,19 +950,19 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -971,16 +971,16 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -1001,7 +1001,7 @@
         <v>9.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -1049,7 +1049,7 @@
         <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1111,46 +1111,46 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
         <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
@@ -1159,13 +1159,13 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
         <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>10</v>
@@ -1186,19 +1186,19 @@
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1213,22 +1213,22 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1237,10 +1237,10 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CWHk9jo1</t>
+          <t>YHET3e9L</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,157 +1830,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
         <v>81</v>
       </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
         <v>13</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>YHET3e9L</t>
+          <t>QFg8dD1e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,124 +2012,124 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>13</v>
+      </c>
+      <c r="X9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
         <v>8</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
         <v>15</v>
       </c>
-      <c r="Y9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO9" t="n">
         <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
         <v>81</v>
@@ -2138,7 +2138,7 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,25 +2147,25 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QFg8dD1e</t>
+          <t>C8Z2IfOE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,160 +2194,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.91</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
         <v>4.33</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.6</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
         <v>21</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>13</v>
       </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AX10" t="n">
         <v>21</v>
       </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>81</v>
       </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>34</v>
-      </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C8Z2IfOE</t>
+          <t>rBIEspW6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>1.18</v>
       </c>
       <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.2</v>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>23</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R11" t="n">
         <v>3.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="S11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W11" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" t="n">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU11" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
         <v>12</v>
       </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="AX11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>201</v>
       </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rBIEspW6</t>
+          <t>l8LMuO0J</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,55 +2558,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.1</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2615,31 +2615,31 @@
         <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
@@ -2648,79 +2648,79 @@
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>67</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS12" t="n">
+      <c r="BA12" t="n">
         <v>81</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>151</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l8LMuO0J</t>
+          <t>QZeJu6GP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,31 +2740,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2779,16 +2779,16 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2800,16 +2800,16 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
@@ -2818,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2830,43 +2830,43 @@
         <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>29</v>
       </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
       <c r="AR13" t="n">
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2875,25 +2875,25 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
         <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>126</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QZeJu6GP</t>
+          <t>dInkzpvm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,85 +2922,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.73</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3009,73 +3009,73 @@
         <v>51</v>
       </c>
       <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
         <v>251</v>
       </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AX14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
         <v>126</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>126</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dInkzpvm</t>
+          <t>hptbYN8a</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,37 +3104,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -3161,28 +3161,28 @@
         <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
         <v>17</v>
       </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>41</v>
-      </c>
       <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
         <v>29</v>
       </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3194,70 +3194,70 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
         <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD15" t="n">
         <v>126</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hptbYN8a</t>
+          <t>nqP5q61f</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.05</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
         <v>15</v>
       </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
         <v>501</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nqP5q61f</t>
+          <t>foM2ULfJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,179 +3458,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.91</v>
       </c>
-      <c r="J17" t="n">
+      <c r="W17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
         <v>4.33</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="AO17" t="n">
         <v>12</v>
       </c>
-      <c r="X17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>23</v>
       </c>
-      <c r="AN17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>foM2ULfJ</t>
+          <t>MiElhPnQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,160 +3650,160 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>23</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.88</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="S18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
       </c>
       <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
         <v>19</v>
       </c>
-      <c r="AA18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AP18" t="n">
         <v>15</v>
       </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI18" t="n">
+      <c r="AQ18" t="n">
         <v>17</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
+      <c r="AR18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT18" t="n">
         <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MiElhPnQ</t>
+          <t>QJ9Kn3Am</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,344 +3832,162 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>17</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W19" t="n">
+        <v>11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
         <v>5.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="AX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY19" t="n">
         <v>21</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P19" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T19" t="n">
-        <v>4</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W19" t="n">
-        <v>10</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
         <v>351</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>QJ9Kn3Am</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>15</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W20" t="n">
-        <v>11</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K2" t="n">
         <v>2.6</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -789,10 +789,10 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -819,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -834,13 +834,13 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
@@ -855,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -882,13 +882,13 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
@@ -938,7 +938,7 @@
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -953,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -971,16 +971,16 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
@@ -995,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1034,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>19</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fyHbbUjD</t>
+          <t>Q94GGB6s</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,133 +1102,133 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
         <v>19</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>17</v>
       </c>
-      <c r="AD4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1237,19 +1237,19 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>8.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q94GGB6s</t>
+          <t>AqaoMXrK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,85 +1284,85 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W5" t="n">
-        <v>10</v>
-      </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>12</v>
-      </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1371,46 +1371,46 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1419,22 +1419,22 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AqaoMXrK</t>
+          <t>UBEWMhkJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,54 +1461,54 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2.1</v>
       </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,118 +1517,118 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UBEWMhkJ</t>
+          <t>YHET3e9L</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,41 +1638,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1681,16 +1681,16 @@
         <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,76 +1699,76 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1777,40 +1777,40 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="AW7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
+      <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="BA7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
-      </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YHET3e9L</t>
+          <t>QFg8dD1e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,124 +1830,124 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X8" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL8" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AM8" t="n">
         <v>26</v>
       </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AN8" t="n">
         <v>6</v>
       </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AO8" t="n">
         <v>21</v>
       </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
       <c r="AP8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
         <v>81</v>
@@ -1956,7 +1956,7 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1965,25 +1965,25 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QFg8dD1e</t>
+          <t>C8Z2IfOE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2012,160 +2012,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
         <v>4.33</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>13</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AY9" t="n">
         <v>34</v>
       </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR9" t="n">
+      <c r="AZ9" t="n">
         <v>81</v>
       </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>34</v>
-      </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C8Z2IfOE</t>
+          <t>rBIEspW6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>1.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>9.5</v>
       </c>
       <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>23</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.08</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>8</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>1.33</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC10" t="n">
         <v>451</v>
       </c>
-      <c r="AH10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>81</v>
-      </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rBIEspW6</t>
+          <t>l8LMuO0J</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,55 +2376,55 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.18</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2433,31 +2433,31 @@
         <v>1.95</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
         <v>15</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2466,79 +2466,79 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
         <v>41</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>67</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL11" t="n">
+      <c r="BA11" t="n">
         <v>81</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>151</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>l8LMuO0J</t>
+          <t>QZeJu6GP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,49 +2558,49 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2615,10 +2615,10 @@
         <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2645,19 +2645,19 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
         <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
         <v>34</v>
@@ -2666,16 +2666,16 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2696,22 +2696,22 @@
         <v>6</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
         <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QZeJu6GP</t>
+          <t>dInkzpvm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.73</v>
       </c>
-      <c r="H13" t="n">
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
         <v>3.75</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AX13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>34</v>
       </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
         <v>126</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>126</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dInkzpvm</t>
+          <t>hptbYN8a</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,31 +2922,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2955,10 +2955,10 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
         <v>2.1</v>
@@ -2973,28 +2973,28 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>9</v>
@@ -3012,40 +3012,40 @@
         <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
         <v>23</v>
       </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
         <v>2.63</v>
@@ -3057,25 +3057,25 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD14" t="n">
         <v>126</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hptbYN8a</t>
+          <t>nqP5q61f</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,157 +3104,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.36</v>
       </c>
-      <c r="P15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W15" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
         <v>7</v>
       </c>
-      <c r="X15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
         <v>17</v>
       </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AL15" t="n">
         <v>15</v>
       </c>
-      <c r="AF15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="n">
         <v>501</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nqP5q61f</t>
+          <t>foM2ULfJ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,179 +3276,179 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.7</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.6</v>
-      </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
         <v>19</v>
       </c>
-      <c r="Y16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>41</v>
-      </c>
       <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
         <v>29</v>
       </c>
-      <c r="AB16" t="n">
-        <v>34</v>
-      </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>41</v>
       </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>67</v>
-      </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>foM2ULfJ</t>
+          <t>MiElhPnQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,160 +3468,160 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.88</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="S17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
       </c>
       <c r="Z17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
         <v>19</v>
       </c>
-      <c r="AA17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>17</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
         <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AU17" t="n">
         <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MiElhPnQ</t>
+          <t>QJ9Kn3Am</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,344 +3650,162 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
         <v>23</v>
       </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AM18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP18" t="n">
         <v>17</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
         <v>41</v>
       </c>
-      <c r="AG18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>34</v>
-      </c>
       <c r="AS18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
         <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC18" t="n">
         <v>351</v>
       </c>
       <c r="BD18" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>QJ9Kn3Am</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>17</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W19" t="n">
-        <v>11</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD19" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
@@ -953,10 +953,10 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.57</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -992,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>15</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
         <v>201</v>
@@ -1323,10 +1323,10 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YHET3e9L</t>
+          <t>rBIEspW6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Dundee FC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>1.18</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.33</v>
       </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR7" t="n">
         <v>26</v>
       </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>81</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>201</v>
       </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QFg8dD1e</t>
+          <t>l8LMuO0J</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,41 +1820,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1863,100 +1863,100 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.9</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.95</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
       <c r="W8" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1965,34 +1965,34 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="BC8" t="n">
-        <v>501</v>
-      </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C8Z2IfOE</t>
+          <t>QZeJu6GP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,116 +2002,116 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>SCOTLAND - PREMIERSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W9" t="n">
         <v>7</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7</v>
       </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -2120,40 +2120,40 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>81</v>
@@ -2162,19 +2162,19 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rBIEspW6</t>
+          <t>dInkzpvm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,169 +2194,169 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dundee FC</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.18</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11</v>
+      </c>
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="Z10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
         <v>23</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W10" t="n">
-        <v>12</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX10" t="n">
         <v>10</v>
       </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>34</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>151</v>
       </c>
-      <c r="AL10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>251</v>
-      </c>
       <c r="BC10" t="n">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>l8LMuO0J</t>
+          <t>hptbYN8a</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2376,85 +2376,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,13 +2463,13 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2487,13 +2487,13 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2502,16 +2502,16 @@
         <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2523,13 +2523,13 @@
         <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QZeJu6GP</t>
+          <t>nqP5q61f</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,79 +2558,79 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
         <v>11</v>
@@ -2639,1174 +2639,82 @@
         <v>7</v>
       </c>
       <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AM12" t="n">
         <v>23</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
         <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>dInkzpvm</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ross County</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Hibernian</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>11</v>
-      </c>
-      <c r="X13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>hptbYN8a</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>St. Mirren</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>St Johnstone</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>nqP5q61f</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SCOTLAND - PREMIERSHIP</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Rangers</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W15" t="n">
-        <v>12</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>foM2ULfJ</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Sion</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Zurich</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MiElhPnQ</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>St. Gallen</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Winterthur</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>23</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P17" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>QJ9Kn3Am</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Young Boys</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Basel</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>17</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>11</v>
-      </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q94GGB6s</t>
+          <t>AqaoMXrK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,85 +738,85 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Blooming</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -825,46 +825,46 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -873,22 +873,22 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AqaoMXrK</t>
+          <t>UBEWMhkJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -915,54 +915,54 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.1</v>
       </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,293 +971,111 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>15</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AK3" t="n">
         <v>51</v>
       </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>UBEWMhkJ</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD4" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -795,7 +795,7 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>10</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -828,10 +828,10 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -840,16 +840,16 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -882,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
@@ -941,10 +941,10 @@
         <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -959,10 +959,10 @@
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -971,31 +971,31 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1004,10 +1004,10 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1052,13 +1052,13 @@
         <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1067,10 +1067,10 @@
         <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -795,19 +795,19 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -828,28 +828,28 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
         <v>12</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -858,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
@@ -873,19 +873,19 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>201</v>
@@ -959,10 +959,10 @@
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>3.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,21 +704,11 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AqaoMXrK</t>
+          <t>CEYAc3cC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,355 +718,167 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Blooming</t>
+          <t>Estudiantes Merida</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>UBEWMhkJ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>30/10/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BRAZIL - SERIE A BETANO</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Internacional</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>126</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -755,10 +755,10 @@
         <v>3.55</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CEYAc3cC</t>
+          <t>IFm4IHT9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,167 +728,5451 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Estudiantes Merida</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.37</v>
+        <v>8.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.95</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.55</v>
+        <v>1.91</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>19</v>
+      </c>
+      <c r="X2" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0b5fTYsS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Y96v2dqT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>rcXrBZLq</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fZ7Fb8Dj</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NETHERLANDS - EREDIVISIE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MNIj0jM0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GV San Jose</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>19</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fyHbbUjD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nacional Potosi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tomayapo</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N8" t="n">
+        <v>19</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q94GGB6s</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AqaoMXrK</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Blooming</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.33</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UBEWMhkJ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nJe0zKQr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Smouha</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MyCLs2Y8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>El Gaish</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lrf80kOO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CWHk9jo1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sudtirol</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>YHET3e9L</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>QFg8dD1e</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mantova</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>13</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C8Z2IfOE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE B</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ttLF3hdB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yokohama F. Marinos</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W19" t="n">
+        <v>11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Uw9TedGt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Dorados de Sinaloa</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cancun</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.98</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>rBIEspW6</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Dundee FC</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>23</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>12</v>
+      </c>
+      <c r="X21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>l8LMuO0J</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dundee Utd</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>QZeJu6GP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dInkzpvm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>11</v>
+      </c>
+      <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>hptbYN8a</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>St Johnstone</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nqP5q61f</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SCOTLAND - PREMIERSHIP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W26" t="n">
+        <v>12</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>rFf4UJrf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.65</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="V27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>21</v>
+      </c>
+      <c r="X27" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GShCScD6</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SLOVAKIA - NIKE LIGA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Trnava</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Komarno</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.7</v>
       </c>
-      <c r="V2" t="n">
+      <c r="R28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>foM2ULfJ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sion</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.91</v>
       </c>
-      <c r="W2" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="W29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AK29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MiElhPnQ</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>St. Gallen</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Winterthur</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>23</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11</v>
+      </c>
+      <c r="X30" t="n">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>QJ9Kn3Am</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30/10/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Basel</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>17</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>11</v>
+      </c>
+      <c r="X31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM31" t="n">
         <v>26</v>
       </c>
-      <c r="AA2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>250</v>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
